--- a/biology/Botanique/Amber_Queen/Amber_Queen.xlsx
+++ b/biology/Botanique/Amber_Queen/Amber_Queen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Amber Queen' (ce qui signifie en français « reine d'ambre »), appelé aussi 'Prince Eugène de Savoie', est un cultivar de rosier obtenu par la maison anglaise Harkness en 1984.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses fleurs d'un jaune spectaculaire forment des coupes aux pétales serrés et bien parfumés. De type floribunda, cet arbuste qui peut atteindre 60 cm de hauteur fleurit en juin avec une bonne remontée à l'automne, si l'on en ôte les fleurs fanées. Il doit être exposé au soleil. 
 Ses fleurs groupées sont parfumées et les feuilles semi-persistantes sont rougeâtres au débourrage, les petites folioles étant luisantes.
@@ -545,7 +559,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rose de l'année en Angleterre en 1984
 AARS 1988
